--- a/genotype_data/run_timing_geno_table.xlsx
+++ b/genotype_data/run_timing_geno_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/FRA/small_ots_projects/rogue_discordant/genotype_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CD9FB66A-0549-5C45-A0AA-7074C099A5BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BABB595D-0F06-5849-88E8-845C236A9F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
     </r>
   </si>
   <si>
-    <t>To call early and late-alleles for coloring the genotype table, we used the empirical dataset rather than taking approaches used previously (use confirmed "Tasha" samples - 1 spring and 2 fall individuals, or use Columbia River validated alleles). We first checked that the empirical data contained sufficient variation to cluster individuals by run timing date, then set an a cutoff of the first 50 julian days of sample date as the extreme early migration period. The major allele for the 47 samples that fell in this group was called as the "early" allele, but please use caution here, there's no testing, just the major allele in the earliest 47 samples. Key provided below. See notebook for full details.</t>
+    <t>To call early and late-alleles for coloring the genotype table, I used the empirical dataset rather than taking approaches used previously (use confirmed "Tasha" samples - 1 spring and 2 fall individuals, or use Columbia River validated alleles). I first checked that the empirical data contained sufficient variation to cluster individuals by run timing date, then set an a cutoff of the first 50 julian days of sample date as the extreme early migration period. The major allele for the 47 samples that fell in this group was called as the "early" allele, but please use caution here, there's no testing, just the major allele in the earliest 47 samples. Key provided below. See notebook for full details.</t>
   </si>
 </sst>
 </file>
@@ -3429,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3924,7 +3924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
